--- a/data/app_data_excelbook.xlsx
+++ b/data/app_data_excelbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drumt\Documents\NSS_Data_Analytics\projects\app-trader-elegant-mangos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA70537-B107-48E6-821F-C52A368EA482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DB843-609E-48A6-BB93-073B88A79BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C84F5E33-8A2D-49B6-ACA6-7A9717A49887}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Clash of Clans</t>
   </si>
@@ -120,25 +142,22 @@
     <t>Hill Climb Racing</t>
   </si>
   <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>apple_rating</t>
-  </si>
-  <si>
-    <t>apple review count</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>google rating</t>
-  </si>
-  <si>
-    <t>google review count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genre </t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>PAC-MAN</t>
+  </si>
+  <si>
+    <t>The Sims™ FreePlay</t>
+  </si>
+  <si>
+    <t>Sonic Dash</t>
+  </si>
+  <si>
+    <t>APPLE REVIEWS</t>
+  </si>
+  <si>
+    <t>GOOGLE REVIEWS</t>
   </si>
 </sst>
 </file>
@@ -154,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,10 +240,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,19 +560,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F18FB-012B-490B-BA80-0434436AA8E9}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="22.6328125" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="44.54296875" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="13.08984375" customWidth="1"/>
@@ -865,262 +892,270 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4.5</v>
+      </c>
+      <c r="C15">
+        <v>2130805</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G15">
+        <v>44893888</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4.5</v>
+      </c>
+      <c r="C16">
+        <v>1724546</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="G16">
+        <v>27725352</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4.5</v>
+      </c>
+      <c r="C17">
+        <v>961794</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G17">
+        <v>23136735</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="C18">
+        <v>706110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18">
+        <v>22430188</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>4.5</v>
+      </c>
+      <c r="C19">
+        <v>698516</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>4.5</v>
+      </c>
+      <c r="G19">
+        <v>14892469</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4.5</v>
+      </c>
+      <c r="C20">
+        <v>679055</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G20">
+        <v>10981850</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>4.5</v>
+      </c>
+      <c r="C21">
+        <v>612532</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4.3</v>
+      </c>
+      <c r="G21">
+        <v>10486018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>508808</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G22">
+        <v>10424925</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="B23">
+        <v>4.5</v>
+      </c>
+      <c r="C23">
+        <v>446880</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>4.5</v>
+      </c>
+      <c r="G23">
+        <v>9883367</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2130805</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F15" s="6">
-        <v>44893888</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>706110</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>27725352</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>266921</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F17" s="6">
-        <v>23136735</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C18" s="6">
-        <v>961794</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="B24">
+        <v>4.5</v>
+      </c>
+      <c r="C24">
+        <v>418033</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F18" s="6">
-        <v>22430188</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C19" s="6">
-        <v>123859</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>14892469</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C20" s="6">
-        <v>99206</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F20" s="6">
-        <v>10981850</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3783</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10486018</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6">
-        <v>257627</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10424925</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C23" s="6">
-        <v>54549</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F23" s="6">
-        <v>9883367</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C24" s="6">
-        <v>108183</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="G24">
         <v>8923847</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:A29">_xlfn._xlws.FILTER(A15:A24,COUNTIF(E15:E24,A15:A24))</f>
+        <v>Clash of Clans</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <v>Candy Crush Saga</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <v>Subway Surfers</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/app_data_excelbook.xlsx
+++ b/data/app_data_excelbook.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drumt\Documents\NSS_Data_Analytics\projects\app-trader-elegant-mangos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DB843-609E-48A6-BB93-073B88A79BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77997B79-FF8F-4F1E-A6AF-EA46A02FBB34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C84F5E33-8A2D-49B6-ACA6-7A9717A49887}"/>
+    <workbookView xWindow="9620" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{C84F5E33-8A2D-49B6-ACA6-7A9717A49887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Clash of Clans</t>
   </si>
@@ -159,6 +160,12 @@
   <si>
     <t>GOOGLE REVIEWS</t>
   </si>
+  <si>
+    <t>GOOGLE AVG REVIEW COUNTS</t>
+  </si>
+  <si>
+    <t>APPLE AVG REVIEW COUNT</t>
+  </si>
 </sst>
 </file>
 
@@ -231,19 +238,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F18FB-012B-490B-BA80-0434436AA8E9}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,329 +587,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>44893888</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>4.5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>2130805</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>4.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>27725352</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>4.5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>1724546</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>23136735</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>4.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>961794</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>22430188</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>4.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>824451</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>4.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>14892469</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>4.5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>706110</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>4.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>14201891</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>4.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>698516</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>10981850</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>4.5</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>679055</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>4.3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>10486018</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>4.5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>677247</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>10424925</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>4.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>669079</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>4.5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>10216538</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>4.5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>612532</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="5" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1160,4 +1167,4035 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389D45F5-BD0A-40E8-8FBE-BF066FFF0F29}">
+  <dimension ref="A1:I500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" customWidth="1"/>
+    <col min="9" max="9" width="33.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>78158306</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(A:A)</f>
+        <v>3893242.7274549096</v>
+      </c>
+      <c r="G2">
+        <v>2974676</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(G:G)</f>
+        <v>144263.75951903808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>78128208</v>
+      </c>
+      <c r="G3">
+        <v>2974676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>69119316</v>
+      </c>
+      <c r="G4">
+        <v>287589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>69109672</v>
+      </c>
+      <c r="G5">
+        <v>287589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>66577446</v>
+      </c>
+      <c r="G6">
+        <v>2161558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>66577313</v>
+      </c>
+      <c r="G7">
+        <v>2161558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>66509917</v>
+      </c>
+      <c r="G8">
+        <v>2161558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>44893888</v>
+      </c>
+      <c r="G9">
+        <v>2130805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>44891723</v>
+      </c>
+      <c r="G10">
+        <v>2130805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>44881447</v>
+      </c>
+      <c r="G11">
+        <v>2130805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>27725352</v>
+      </c>
+      <c r="G12">
+        <v>706110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>27724094</v>
+      </c>
+      <c r="G13">
+        <v>706110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>27723193</v>
+      </c>
+      <c r="G14">
+        <v>706110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>27722264</v>
+      </c>
+      <c r="G15">
+        <v>706110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>27711703</v>
+      </c>
+      <c r="G16">
+        <v>706110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>23136735</v>
+      </c>
+      <c r="G17">
+        <v>266921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>23134775</v>
+      </c>
+      <c r="G18">
+        <v>266921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>23133508</v>
+      </c>
+      <c r="G19">
+        <v>266921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>23125280</v>
+      </c>
+      <c r="G20">
+        <v>266921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>22430188</v>
+      </c>
+      <c r="G21">
+        <v>961794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22429716</v>
+      </c>
+      <c r="G22">
+        <v>961794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22428456</v>
+      </c>
+      <c r="G23">
+        <v>961794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22426677</v>
+      </c>
+      <c r="G24">
+        <v>961794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>22419455</v>
+      </c>
+      <c r="G25">
+        <v>961794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>17015352</v>
+      </c>
+      <c r="G26">
+        <v>323905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>17014787</v>
+      </c>
+      <c r="G27">
+        <v>323905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>17014705</v>
+      </c>
+      <c r="G28">
+        <v>323905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>17000166</v>
+      </c>
+      <c r="G29">
+        <v>323905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14892469</v>
+      </c>
+      <c r="G30">
+        <v>123859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>14891223</v>
+      </c>
+      <c r="G31">
+        <v>123859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>14885236</v>
+      </c>
+      <c r="G32">
+        <v>123859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>11667403</v>
+      </c>
+      <c r="G33">
+        <v>354058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>11657972</v>
+      </c>
+      <c r="G34">
+        <v>354058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10981850</v>
+      </c>
+      <c r="G35">
+        <v>99206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10979062</v>
+      </c>
+      <c r="G36">
+        <v>99206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>10486018</v>
+      </c>
+      <c r="G37">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10485334</v>
+      </c>
+      <c r="G38">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>10485308</v>
+      </c>
+      <c r="G39">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10483141</v>
+      </c>
+      <c r="G40">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>10424925</v>
+      </c>
+      <c r="G41">
+        <v>257627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>10421284</v>
+      </c>
+      <c r="G42">
+        <v>257627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>10053186</v>
+      </c>
+      <c r="G43">
+        <v>567344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>9883367</v>
+      </c>
+      <c r="G44">
+        <v>54549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>9881908</v>
+      </c>
+      <c r="G45">
+        <v>54549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>9881829</v>
+      </c>
+      <c r="G46">
+        <v>54549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>9876369</v>
+      </c>
+      <c r="G47">
+        <v>54549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>8923847</v>
+      </c>
+      <c r="G48">
+        <v>108183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>8923818</v>
+      </c>
+      <c r="G49">
+        <v>108183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>8923587</v>
+      </c>
+      <c r="G50">
+        <v>108183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>8921451</v>
+      </c>
+      <c r="G51">
+        <v>108183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>8389714</v>
+      </c>
+      <c r="G52">
+        <v>188568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>8119154</v>
+      </c>
+      <c r="G53">
+        <v>295211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>8119151</v>
+      </c>
+      <c r="G54">
+        <v>295211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>8118937</v>
+      </c>
+      <c r="G55">
+        <v>295211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>8118609</v>
+      </c>
+      <c r="G56">
+        <v>295211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>8116142</v>
+      </c>
+      <c r="G57">
+        <v>295211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>7615646</v>
+      </c>
+      <c r="G58">
+        <v>187579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>7614415</v>
+      </c>
+      <c r="G59">
+        <v>187579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>7614407</v>
+      </c>
+      <c r="G60">
+        <v>187579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>7614271</v>
+      </c>
+      <c r="G61">
+        <v>187579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>7614130</v>
+      </c>
+      <c r="G62">
+        <v>187579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>7594559</v>
+      </c>
+      <c r="G63">
+        <v>29078</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>7590099</v>
+      </c>
+      <c r="G64">
+        <v>29078</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>6427773</v>
+      </c>
+      <c r="G65">
+        <v>393469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>6212081</v>
+      </c>
+      <c r="G66">
+        <v>141960</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>6211039</v>
+      </c>
+      <c r="G67">
+        <v>141960</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>6210998</v>
+      </c>
+      <c r="G68">
+        <v>141960</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>6200739</v>
+      </c>
+      <c r="G69">
+        <v>141960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>6199095</v>
+      </c>
+      <c r="G70">
+        <v>133394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>6198880</v>
+      </c>
+      <c r="G71">
+        <v>133394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>6198563</v>
+      </c>
+      <c r="G72">
+        <v>133394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>6181640</v>
+      </c>
+      <c r="G73">
+        <v>370370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>6074627</v>
+      </c>
+      <c r="G74">
+        <v>83784</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>6074334</v>
+      </c>
+      <c r="G75">
+        <v>83784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>6071542</v>
+      </c>
+      <c r="G76">
+        <v>83784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5745093</v>
+      </c>
+      <c r="G77">
+        <v>26786</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>5741684</v>
+      </c>
+      <c r="G78">
+        <v>26786</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5591653</v>
+      </c>
+      <c r="G79">
+        <v>241929</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5456708</v>
+      </c>
+      <c r="G80">
+        <v>308844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>5456599</v>
+      </c>
+      <c r="G81">
+        <v>308844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>5456208</v>
+      </c>
+      <c r="G82">
+        <v>308844</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5453997</v>
+      </c>
+      <c r="G83">
+        <v>308844</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5419676</v>
+      </c>
+      <c r="G84">
+        <v>85395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5418675</v>
+      </c>
+      <c r="G85">
+        <v>85395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5387781</v>
+      </c>
+      <c r="G86">
+        <v>22458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>5387639</v>
+      </c>
+      <c r="G87">
+        <v>22458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5387631</v>
+      </c>
+      <c r="G88">
+        <v>34584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5387446</v>
+      </c>
+      <c r="G89">
+        <v>34584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>5387333</v>
+      </c>
+      <c r="G90">
+        <v>34584</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>5235294</v>
+      </c>
+      <c r="G91">
+        <v>107817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>5234825</v>
+      </c>
+      <c r="G92">
+        <v>107817</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>5234810</v>
+      </c>
+      <c r="G93">
+        <v>107817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>5234162</v>
+      </c>
+      <c r="G94">
+        <v>107817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>5231553</v>
+      </c>
+      <c r="G95">
+        <v>107817</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>5091448</v>
+      </c>
+      <c r="G96">
+        <v>327025</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>4928420</v>
+      </c>
+      <c r="G97">
+        <v>49466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>4921866</v>
+      </c>
+      <c r="G98">
+        <v>49466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>4921451</v>
+      </c>
+      <c r="G99">
+        <v>31311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>4921409</v>
+      </c>
+      <c r="G100">
+        <v>31311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>4921122</v>
+      </c>
+      <c r="G101">
+        <v>31311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>4920817</v>
+      </c>
+      <c r="G102">
+        <v>31311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>4918776</v>
+      </c>
+      <c r="G103">
+        <v>31311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>4638163</v>
+      </c>
+      <c r="G104">
+        <v>405647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>4637439</v>
+      </c>
+      <c r="G105">
+        <v>405647</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>4451317</v>
+      </c>
+      <c r="G106">
+        <v>80801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>4450890</v>
+      </c>
+      <c r="G107">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>4450855</v>
+      </c>
+      <c r="G108">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>4449910</v>
+      </c>
+      <c r="G109">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>4449882</v>
+      </c>
+      <c r="G110">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>4448791</v>
+      </c>
+      <c r="G111">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>4447388</v>
+      </c>
+      <c r="G112">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>4447346</v>
+      </c>
+      <c r="G113">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>4443407</v>
+      </c>
+      <c r="G114">
+        <v>183621</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>4305441</v>
+      </c>
+      <c r="G115">
+        <v>1061624</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>4300936</v>
+      </c>
+      <c r="G116">
+        <v>1061624</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>4218587</v>
+      </c>
+      <c r="G117">
+        <v>198338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>4147718</v>
+      </c>
+      <c r="G118">
+        <v>126233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>4000433</v>
+      </c>
+      <c r="G119">
+        <v>1724546</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>3883589</v>
+      </c>
+      <c r="G120">
+        <v>109104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3881752</v>
+      </c>
+      <c r="G121">
+        <v>109104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>3846378</v>
+      </c>
+      <c r="G122">
+        <v>75793</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>3816799</v>
+      </c>
+      <c r="G123">
+        <v>176514</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>3815614</v>
+      </c>
+      <c r="G124">
+        <v>176514</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>3778921</v>
+      </c>
+      <c r="G125">
+        <v>418033</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>3777822</v>
+      </c>
+      <c r="G126">
+        <v>418033</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>3419513</v>
+      </c>
+      <c r="G127">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>3419464</v>
+      </c>
+      <c r="G128">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>3419433</v>
+      </c>
+      <c r="G129">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>3419249</v>
+      </c>
+      <c r="G130">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>3344300</v>
+      </c>
+      <c r="G131">
+        <v>34998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>3198176</v>
+      </c>
+      <c r="G132">
+        <v>107797</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>3197865</v>
+      </c>
+      <c r="G133">
+        <v>107797</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>3073251</v>
+      </c>
+      <c r="G134">
+        <v>97122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>3039889</v>
+      </c>
+      <c r="G135">
+        <v>114475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2955326</v>
+      </c>
+      <c r="G136">
+        <v>334293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2955325</v>
+      </c>
+      <c r="G137">
+        <v>334293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2953886</v>
+      </c>
+      <c r="G138">
+        <v>334293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2789775</v>
+      </c>
+      <c r="G139">
+        <v>143040</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2750645</v>
+      </c>
+      <c r="G140">
+        <v>33854</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2750410</v>
+      </c>
+      <c r="G141">
+        <v>33854</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2721923</v>
+      </c>
+      <c r="G142">
+        <v>199396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2719142</v>
+      </c>
+      <c r="G143">
+        <v>199396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2634605</v>
+      </c>
+      <c r="G144">
+        <v>84680</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2610680</v>
+      </c>
+      <c r="G145">
+        <v>170843</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2610622</v>
+      </c>
+      <c r="G146">
+        <v>170843</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2610526</v>
+      </c>
+      <c r="G147">
+        <v>170843</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2610328</v>
+      </c>
+      <c r="G148">
+        <v>170843</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2468915</v>
+      </c>
+      <c r="G149">
+        <v>233599</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2468063</v>
+      </c>
+      <c r="G150">
+        <v>233599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2451136</v>
+      </c>
+      <c r="G151">
+        <v>260965</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2440877</v>
+      </c>
+      <c r="G152">
+        <v>612532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2440695</v>
+      </c>
+      <c r="G153">
+        <v>985920</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2354042</v>
+      </c>
+      <c r="G154">
+        <v>20906</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2339098</v>
+      </c>
+      <c r="G155">
+        <v>446185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2338655</v>
+      </c>
+      <c r="G156">
+        <v>446185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2158580</v>
+      </c>
+      <c r="G157">
+        <v>39217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2157930</v>
+      </c>
+      <c r="G158">
+        <v>39217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2129707</v>
+      </c>
+      <c r="G159">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2129689</v>
+      </c>
+      <c r="G160">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2119235</v>
+      </c>
+      <c r="G161">
+        <v>16968</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2119218</v>
+      </c>
+      <c r="G162">
+        <v>16968</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2084126</v>
+      </c>
+      <c r="G163">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2084125</v>
+      </c>
+      <c r="G164">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2078744</v>
+      </c>
+      <c r="G165">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2045554</v>
+      </c>
+      <c r="G166">
+        <v>137122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>1971777</v>
+      </c>
+      <c r="G167">
+        <v>20243</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>1889582</v>
+      </c>
+      <c r="G168">
+        <v>75822</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>1889250</v>
+      </c>
+      <c r="G169">
+        <v>75822</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>1861310</v>
+      </c>
+      <c r="G170">
+        <v>49578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>1861309</v>
+      </c>
+      <c r="G171">
+        <v>49578</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>1860844</v>
+      </c>
+      <c r="G172">
+        <v>49578</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>1842381</v>
+      </c>
+      <c r="G173">
+        <v>155903</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>1841061</v>
+      </c>
+      <c r="G174">
+        <v>155903</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>1728557</v>
+      </c>
+      <c r="G175">
+        <v>68911</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>1690802</v>
+      </c>
+      <c r="G176">
+        <v>40619</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>1671658</v>
+      </c>
+      <c r="G177">
+        <v>11295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>1605267</v>
+      </c>
+      <c r="G178">
+        <v>198050</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>1604146</v>
+      </c>
+      <c r="G179">
+        <v>179416</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>1591129</v>
+      </c>
+      <c r="G180">
+        <v>117470</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>1574546</v>
+      </c>
+      <c r="G181">
+        <v>50593</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>1574204</v>
+      </c>
+      <c r="G182">
+        <v>50593</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>1574197</v>
+      </c>
+      <c r="G183">
+        <v>50593</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>1499466</v>
+      </c>
+      <c r="G184">
+        <v>90851</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>1490732</v>
+      </c>
+      <c r="G185">
+        <v>39501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>1490722</v>
+      </c>
+      <c r="G186">
+        <v>39501</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>1461698</v>
+      </c>
+      <c r="G187">
+        <v>122260</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>1432447</v>
+      </c>
+      <c r="G188">
+        <v>9818</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>1374549</v>
+      </c>
+      <c r="G189">
+        <v>34322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>1333338</v>
+      </c>
+      <c r="G190">
+        <v>293857</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>1327269</v>
+      </c>
+      <c r="G191">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>1327265</v>
+      </c>
+      <c r="G192">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>1312037</v>
+      </c>
+      <c r="G193">
+        <v>112603</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>1300619</v>
+      </c>
+      <c r="G194">
+        <v>32395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>1300490</v>
+      </c>
+      <c r="G195">
+        <v>32395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>1295625</v>
+      </c>
+      <c r="G196">
+        <v>373857</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>1295606</v>
+      </c>
+      <c r="G197">
+        <v>373857</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>1295557</v>
+      </c>
+      <c r="G198">
+        <v>373857</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>1295293</v>
+      </c>
+      <c r="G199">
+        <v>373857</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>1254730</v>
+      </c>
+      <c r="G200">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>1243017</v>
+      </c>
+      <c r="G201">
+        <v>24057</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>1242855</v>
+      </c>
+      <c r="G202">
+        <v>24057</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>1225367</v>
+      </c>
+      <c r="G203">
+        <v>71856</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>1225339</v>
+      </c>
+      <c r="G204">
+        <v>71856</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>1221896</v>
+      </c>
+      <c r="G205">
+        <v>87958</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>1218055</v>
+      </c>
+      <c r="G206">
+        <v>34138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>1168959</v>
+      </c>
+      <c r="G207">
+        <v>26259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>1117212</v>
+      </c>
+      <c r="G208">
+        <v>30670</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>1111915</v>
+      </c>
+      <c r="G209">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>1083571</v>
+      </c>
+      <c r="G210">
+        <v>395261</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>1079616</v>
+      </c>
+      <c r="G211">
+        <v>24430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>1079491</v>
+      </c>
+      <c r="G212">
+        <v>24430</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>1032935</v>
+      </c>
+      <c r="G213">
+        <v>258624</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>1028794</v>
+      </c>
+      <c r="G214">
+        <v>65016</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>1014846</v>
+      </c>
+      <c r="G215">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>1014822</v>
+      </c>
+      <c r="G216">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>1013465</v>
+      </c>
+      <c r="G217">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>990796</v>
+      </c>
+      <c r="G218">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>990723</v>
+      </c>
+      <c r="G219">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>990663</v>
+      </c>
+      <c r="G220">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>990586</v>
+      </c>
+      <c r="G221">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>990491</v>
+      </c>
+      <c r="G222">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>989158</v>
+      </c>
+      <c r="G223">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>931595</v>
+      </c>
+      <c r="G224">
+        <v>446880</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>931503</v>
+      </c>
+      <c r="G225">
+        <v>446880</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>928720</v>
+      </c>
+      <c r="G226">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>906384</v>
+      </c>
+      <c r="G227">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>903392</v>
+      </c>
+      <c r="G228">
+        <v>24935</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>886418</v>
+      </c>
+      <c r="G229">
+        <v>158845</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>829753</v>
+      </c>
+      <c r="G230">
+        <v>23655</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>823109</v>
+      </c>
+      <c r="G231">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>815981</v>
+      </c>
+      <c r="G232">
+        <v>64259</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>815974</v>
+      </c>
+      <c r="G233">
+        <v>64259</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>807338</v>
+      </c>
+      <c r="G234">
+        <v>33698</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>807155</v>
+      </c>
+      <c r="G235">
+        <v>33698</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>794058</v>
+      </c>
+      <c r="G236">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>783025</v>
+      </c>
+      <c r="G237">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>764967</v>
+      </c>
+      <c r="G238">
+        <v>19018</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>760628</v>
+      </c>
+      <c r="G239">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>759838</v>
+      </c>
+      <c r="G240">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>753115</v>
+      </c>
+      <c r="G241">
+        <v>11174</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>745684</v>
+      </c>
+      <c r="G242">
+        <v>28187</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>736864</v>
+      </c>
+      <c r="G243">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>736824</v>
+      </c>
+      <c r="G244">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>705805</v>
+      </c>
+      <c r="G245">
+        <v>27711</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>702975</v>
+      </c>
+      <c r="G246">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>687136</v>
+      </c>
+      <c r="G247">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>685981</v>
+      </c>
+      <c r="G248">
+        <v>508808</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>685450</v>
+      </c>
+      <c r="G249">
+        <v>508808</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>674730</v>
+      </c>
+      <c r="G250">
+        <v>38681</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>673203</v>
+      </c>
+      <c r="G251">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>672089</v>
+      </c>
+      <c r="G252">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>650114</v>
+      </c>
+      <c r="G253">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>636995</v>
+      </c>
+      <c r="G254">
+        <v>274501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>634159</v>
+      </c>
+      <c r="G255">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>623398</v>
+      </c>
+      <c r="G256">
+        <v>21881</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>618798</v>
+      </c>
+      <c r="G257">
+        <v>10939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>618796</v>
+      </c>
+      <c r="G258">
+        <v>10939</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>580160</v>
+      </c>
+      <c r="G259">
+        <v>79074</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>567632</v>
+      </c>
+      <c r="G260">
+        <v>267394</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>556659</v>
+      </c>
+      <c r="G261">
+        <v>72187</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>541732</v>
+      </c>
+      <c r="G262">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>541661</v>
+      </c>
+      <c r="G263">
+        <v>11677</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>541389</v>
+      </c>
+      <c r="G264">
+        <v>11677</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>539931</v>
+      </c>
+      <c r="G265">
+        <v>23298</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>530904</v>
+      </c>
+      <c r="G266">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>530854</v>
+      </c>
+      <c r="G267">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>526595</v>
+      </c>
+      <c r="G268">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>520654</v>
+      </c>
+      <c r="G269">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>520609</v>
+      </c>
+      <c r="G270">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>515657</v>
+      </c>
+      <c r="G271">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>515240</v>
+      </c>
+      <c r="G272">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>514088</v>
+      </c>
+      <c r="G273">
+        <v>38571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>503757</v>
+      </c>
+      <c r="G274">
+        <v>98344</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>496399</v>
+      </c>
+      <c r="G275">
+        <v>24602</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>496397</v>
+      </c>
+      <c r="G276">
+        <v>24602</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>482630</v>
+      </c>
+      <c r="G277">
+        <v>19977</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>480643</v>
+      </c>
+      <c r="G278">
+        <v>39638</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>480640</v>
+      </c>
+      <c r="G279">
+        <v>39638</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>480638</v>
+      </c>
+      <c r="G280">
+        <v>39638</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>470713</v>
+      </c>
+      <c r="G281">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>470694</v>
+      </c>
+      <c r="G282">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>470089</v>
+      </c>
+      <c r="G283">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>469851</v>
+      </c>
+      <c r="G284">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>466495</v>
+      </c>
+      <c r="G285">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>459797</v>
+      </c>
+      <c r="G286">
+        <v>27317</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>459795</v>
+      </c>
+      <c r="G287">
+        <v>27317</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>455496</v>
+      </c>
+      <c r="G288">
+        <v>303856</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>455377</v>
+      </c>
+      <c r="G289">
+        <v>303856</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>411683</v>
+      </c>
+      <c r="G290">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>408292</v>
+      </c>
+      <c r="G291">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>401648</v>
+      </c>
+      <c r="G292">
+        <v>28361</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>401425</v>
+      </c>
+      <c r="G293">
+        <v>28361</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>391325</v>
+      </c>
+      <c r="G294">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>379415</v>
+      </c>
+      <c r="G295">
+        <v>16305</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>379245</v>
+      </c>
+      <c r="G296">
+        <v>16305</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>371318</v>
+      </c>
+      <c r="G297">
+        <v>76392</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>361970</v>
+      </c>
+      <c r="G298">
+        <v>26990</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>361734</v>
+      </c>
+      <c r="G299">
+        <v>26990</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>359560</v>
+      </c>
+      <c r="G300">
+        <v>22302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>359403</v>
+      </c>
+      <c r="G301">
+        <v>22302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>357417</v>
+      </c>
+      <c r="G302">
+        <v>90496</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>354454</v>
+      </c>
+      <c r="G303">
+        <v>164483</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>354384</v>
+      </c>
+      <c r="G304">
+        <v>164483</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>354373</v>
+      </c>
+      <c r="G305">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>349503</v>
+      </c>
+      <c r="G306">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>348962</v>
+      </c>
+      <c r="G307">
+        <v>32533</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>347883</v>
+      </c>
+      <c r="G308">
+        <v>9397</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>330761</v>
+      </c>
+      <c r="G309">
+        <v>28260</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>309872</v>
+      </c>
+      <c r="G310">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>306652</v>
+      </c>
+      <c r="G311">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>305347</v>
+      </c>
+      <c r="G312">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>304106</v>
+      </c>
+      <c r="G313">
+        <v>17376</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>288809</v>
+      </c>
+      <c r="G314">
+        <v>159735</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>288209</v>
+      </c>
+      <c r="G315">
+        <v>97368</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>288150</v>
+      </c>
+      <c r="G316">
+        <v>97368</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>263907</v>
+      </c>
+      <c r="G317">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>258556</v>
+      </c>
+      <c r="G318">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>254258</v>
+      </c>
+      <c r="G319">
+        <v>679055</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>253115</v>
+      </c>
+      <c r="G320">
+        <v>24878</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>250719</v>
+      </c>
+      <c r="G321">
+        <v>43064</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>250706</v>
+      </c>
+      <c r="G322">
+        <v>43064</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>247992</v>
+      </c>
+      <c r="G323">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>245839</v>
+      </c>
+      <c r="G324">
+        <v>8412</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>244797</v>
+      </c>
+      <c r="G325">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>244567</v>
+      </c>
+      <c r="G326">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>243747</v>
+      </c>
+      <c r="G327">
+        <v>291787</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>235486</v>
+      </c>
+      <c r="G328">
+        <v>81006</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>226541</v>
+      </c>
+      <c r="G329">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>222664</v>
+      </c>
+      <c r="G330">
+        <v>221002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>203101</v>
+      </c>
+      <c r="G331">
+        <v>183259</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>200214</v>
+      </c>
+      <c r="G332">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>200058</v>
+      </c>
+      <c r="G333">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>190086</v>
+      </c>
+      <c r="G334">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>188740</v>
+      </c>
+      <c r="G335">
+        <v>131656</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>186116</v>
+      </c>
+      <c r="G336">
+        <v>80424</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>185632</v>
+      </c>
+      <c r="G337">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>181961</v>
+      </c>
+      <c r="G338">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>181893</v>
+      </c>
+      <c r="G339">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>181823</v>
+      </c>
+      <c r="G340">
+        <v>9725</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>181798</v>
+      </c>
+      <c r="G341">
+        <v>9725</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>169609</v>
+      </c>
+      <c r="G342">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>166251</v>
+      </c>
+      <c r="G343">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>161610</v>
+      </c>
+      <c r="G344">
+        <v>49510</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>157264</v>
+      </c>
+      <c r="G345">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>154264</v>
+      </c>
+      <c r="G346">
+        <v>679055</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>154108</v>
+      </c>
+      <c r="G347">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>148550</v>
+      </c>
+      <c r="G348">
+        <v>35440</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>148549</v>
+      </c>
+      <c r="G349">
+        <v>35440</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>148536</v>
+      </c>
+      <c r="G350">
+        <v>35440</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>148405</v>
+      </c>
+      <c r="G351">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>148295</v>
+      </c>
+      <c r="G352">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>148083</v>
+      </c>
+      <c r="G353">
+        <v>53285</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>145646</v>
+      </c>
+      <c r="G354">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>145323</v>
+      </c>
+      <c r="G355">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>140658</v>
+      </c>
+      <c r="G356">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>137674</v>
+      </c>
+      <c r="G357">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>129409</v>
+      </c>
+      <c r="G358">
+        <v>11065</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>128808</v>
+      </c>
+      <c r="G359">
+        <v>13482</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>123322</v>
+      </c>
+      <c r="G360">
+        <v>13237</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>123309</v>
+      </c>
+      <c r="G361">
+        <v>13237</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>123279</v>
+      </c>
+      <c r="G362">
+        <v>13237</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>119685</v>
+      </c>
+      <c r="G363">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>115033</v>
+      </c>
+      <c r="G364">
+        <v>60236</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>108318</v>
+      </c>
+      <c r="G365">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>108169</v>
+      </c>
+      <c r="G366">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>104504</v>
+      </c>
+      <c r="G367">
+        <v>25947</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>100997</v>
+      </c>
+      <c r="G368">
+        <v>19946</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>100805</v>
+      </c>
+      <c r="G369">
+        <v>27388</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>88185</v>
+      </c>
+      <c r="G370">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>85882</v>
+      </c>
+      <c r="G371">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>85468</v>
+      </c>
+      <c r="G372">
+        <v>698516</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>85185</v>
+      </c>
+      <c r="G373">
+        <v>8324</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>85015</v>
+      </c>
+      <c r="G374">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>84114</v>
+      </c>
+      <c r="G375">
+        <v>8673</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>83545</v>
+      </c>
+      <c r="G376">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>80900</v>
+      </c>
+      <c r="G377">
+        <v>16385</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>80847</v>
+      </c>
+      <c r="G378">
+        <v>108507</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>80816</v>
+      </c>
+      <c r="G379">
+        <v>108507</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>80678</v>
+      </c>
+      <c r="G380">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>78442</v>
+      </c>
+      <c r="G381">
+        <v>47172</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>78306</v>
+      </c>
+      <c r="G382">
+        <v>48822</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>76608</v>
+      </c>
+      <c r="G383">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>75571</v>
+      </c>
+      <c r="G384">
+        <v>6808</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>75566</v>
+      </c>
+      <c r="G385">
+        <v>16683</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>73919</v>
+      </c>
+      <c r="G386">
+        <v>18107</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>72513</v>
+      </c>
+      <c r="G387">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>69498</v>
+      </c>
+      <c r="G388">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>69493</v>
+      </c>
+      <c r="G389">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>68935</v>
+      </c>
+      <c r="G390">
+        <v>15554</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>68559</v>
+      </c>
+      <c r="G391">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>68071</v>
+      </c>
+      <c r="G392">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>68070</v>
+      </c>
+      <c r="G393">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>68025</v>
+      </c>
+      <c r="G394">
+        <v>351466</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>65766</v>
+      </c>
+      <c r="G395">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>63782</v>
+      </c>
+      <c r="G396">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>63580</v>
+      </c>
+      <c r="G397">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>63020</v>
+      </c>
+      <c r="G398">
+        <v>32881</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>62616</v>
+      </c>
+      <c r="G399">
+        <v>12811</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>61881</v>
+      </c>
+      <c r="G400">
+        <v>109349</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>56444</v>
+      </c>
+      <c r="G401">
+        <v>21648</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>55380</v>
+      </c>
+      <c r="G402">
+        <v>8054</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>53144</v>
+      </c>
+      <c r="G403">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>51791</v>
+      </c>
+      <c r="G404">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>51569</v>
+      </c>
+      <c r="G405">
+        <v>20649</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>51110</v>
+      </c>
+      <c r="G406">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>50893</v>
+      </c>
+      <c r="G407">
+        <v>14057</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>49259</v>
+      </c>
+      <c r="G408">
+        <v>61724</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>47688</v>
+      </c>
+      <c r="G409">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>45558</v>
+      </c>
+      <c r="G410">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>43645</v>
+      </c>
+      <c r="G411">
+        <v>39502</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>42529</v>
+      </c>
+      <c r="G412">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>41941</v>
+      </c>
+      <c r="G413">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>41917</v>
+      </c>
+      <c r="G414">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>36981</v>
+      </c>
+      <c r="G415">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>36893</v>
+      </c>
+      <c r="G416">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>36880</v>
+      </c>
+      <c r="G417">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>36815</v>
+      </c>
+      <c r="G418">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>36214</v>
+      </c>
+      <c r="G419">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>36212</v>
+      </c>
+      <c r="G420">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>35279</v>
+      </c>
+      <c r="G421">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>32812</v>
+      </c>
+      <c r="G422">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>32732</v>
+      </c>
+      <c r="G423">
+        <v>13257</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>32522</v>
+      </c>
+      <c r="G424">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>32433</v>
+      </c>
+      <c r="G425">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>31100</v>
+      </c>
+      <c r="G426">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>31085</v>
+      </c>
+      <c r="G427">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>30447</v>
+      </c>
+      <c r="G428">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>30287</v>
+      </c>
+      <c r="G429">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>29319</v>
+      </c>
+      <c r="G430">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>28009</v>
+      </c>
+      <c r="G431">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>28008</v>
+      </c>
+      <c r="G432">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>27931</v>
+      </c>
+      <c r="G433">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>27856</v>
+      </c>
+      <c r="G434">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>27560</v>
+      </c>
+      <c r="G435">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>26426</v>
+      </c>
+      <c r="G436">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>24877</v>
+      </c>
+      <c r="G437">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>24781</v>
+      </c>
+      <c r="G438">
+        <v>30552</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>24729</v>
+      </c>
+      <c r="G439">
+        <v>11421</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>23158</v>
+      </c>
+      <c r="G440">
+        <v>18572</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>21223</v>
+      </c>
+      <c r="G441">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>20973</v>
+      </c>
+      <c r="G442">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>20843</v>
+      </c>
+      <c r="G443">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>20101</v>
+      </c>
+      <c r="G444">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>19373</v>
+      </c>
+      <c r="G445">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>19314</v>
+      </c>
+      <c r="G446">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>18652</v>
+      </c>
+      <c r="G447">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>18621</v>
+      </c>
+      <c r="G448">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>18247</v>
+      </c>
+      <c r="G449">
+        <v>7565</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>17988</v>
+      </c>
+      <c r="G450">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>16600</v>
+      </c>
+      <c r="G451">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>15924</v>
+      </c>
+      <c r="G452">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>15750</v>
+      </c>
+      <c r="G453">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>14807</v>
+      </c>
+      <c r="G454">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>13752</v>
+      </c>
+      <c r="G455">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>12398</v>
+      </c>
+      <c r="G456">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>10795</v>
+      </c>
+      <c r="G457">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>10256</v>
+      </c>
+      <c r="G458">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>10006</v>
+      </c>
+      <c r="G459">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>9659</v>
+      </c>
+      <c r="G460">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>8193</v>
+      </c>
+      <c r="G461">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>8126</v>
+      </c>
+      <c r="G462">
+        <v>117889</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>7904</v>
+      </c>
+      <c r="G463">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>7420</v>
+      </c>
+      <c r="G464">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>6747</v>
+      </c>
+      <c r="G465">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>6477</v>
+      </c>
+      <c r="G466">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>6238</v>
+      </c>
+      <c r="G467">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>5427</v>
+      </c>
+      <c r="G468">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>5093</v>
+      </c>
+      <c r="G469">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>4328</v>
+      </c>
+      <c r="G470">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>4272</v>
+      </c>
+      <c r="G471">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>3397</v>
+      </c>
+      <c r="G472">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>3396</v>
+      </c>
+      <c r="G473">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>3328</v>
+      </c>
+      <c r="G474">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>2975</v>
+      </c>
+      <c r="G475">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>2557</v>
+      </c>
+      <c r="G476">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>2195</v>
+      </c>
+      <c r="G477">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>2107</v>
+      </c>
+      <c r="G478">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>2000</v>
+      </c>
+      <c r="G479">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>1771</v>
+      </c>
+      <c r="G480">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>1516</v>
+      </c>
+      <c r="G481">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>1468</v>
+      </c>
+      <c r="G482">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>1405</v>
+      </c>
+      <c r="G483">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>1357</v>
+      </c>
+      <c r="G484">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>1268</v>
+      </c>
+      <c r="G485">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>1091</v>
+      </c>
+      <c r="G486">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>854</v>
+      </c>
+      <c r="G487">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>685</v>
+      </c>
+      <c r="G488">
+        <v>679055</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>661</v>
+      </c>
+      <c r="G489">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>630</v>
+      </c>
+      <c r="G490">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>416</v>
+      </c>
+      <c r="G491">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>416</v>
+      </c>
+      <c r="G492">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>265</v>
+      </c>
+      <c r="G493">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>253</v>
+      </c>
+      <c r="G494">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>197</v>
+      </c>
+      <c r="G495">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>168</v>
+      </c>
+      <c r="G496">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>145</v>
+      </c>
+      <c r="G497">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>97</v>
+      </c>
+      <c r="G498">
+        <v>9763</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>80</v>
+      </c>
+      <c r="G499">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>52</v>
+      </c>
+      <c r="G500">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A500">
+    <sortCondition descending="1" ref="A2:A500"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>